--- a/Project3927_M. R. Smith(2024).xlsx
+++ b/Project3927_M. R. Smith(2024).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66B178-BA1F-3B48-89C3-F666A3EA10C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCCF90-287B-4B59-8C79-3D863CA189B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{C7FF412E-8496-CA4A-B1E0-2453682C52E1}"/>
+    <workbookView xWindow="45" yWindow="9090" windowWidth="15945" windowHeight="18375" xr2:uid="{C7FF412E-8496-CA4A-B1E0-2453682C52E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3927" sheetId="2" r:id="rId1"/>
@@ -528,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,55 +613,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>56554</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>826264</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F7C967-E236-748A-07C4-CFD112C4AF7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10597554" y="308263"/>
-          <a:ext cx="10840045" cy="6678023"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,18 +934,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B5B66-C8AB-2741-B63B-AE7C9A7DEF45}">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="5" t="s">
         <v>160</v>
       </c>
@@ -1005,7 +954,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -1016,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -1027,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -1038,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -1049,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -1060,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1071,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1082,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -1093,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -1104,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -1115,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -1126,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1137,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -1148,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -1159,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -1170,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -1181,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -1192,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -1203,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -1214,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -1225,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -1236,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -1247,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -1258,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -1269,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -1280,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -1291,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -1302,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -1313,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -1324,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -1335,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -1346,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1357,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1368,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -1379,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1390,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -1401,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -1412,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1423,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1434,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -1445,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -1456,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -1467,7 +1416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -1478,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -1489,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -1500,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -1511,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -1522,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -1533,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1544,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -1555,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -1566,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -1577,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -1588,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -1599,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -1610,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -1621,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -1632,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -1643,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -1654,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -1665,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -1676,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -1687,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -1698,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -1709,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -1720,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -1731,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -1742,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -1753,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -1764,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -1775,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -1786,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -1797,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -1808,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -1819,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -1830,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -1841,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -1852,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1863,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1874,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1885,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -1896,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -1907,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -1918,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -1929,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -1940,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -1951,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -1962,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -1973,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -1984,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>68</v>
       </c>
@@ -1995,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -2006,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -2017,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -2028,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>64</v>
       </c>
@@ -2039,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -2050,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>62</v>
       </c>
@@ -2061,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -2072,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2083,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -2094,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -2105,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -2116,7 +2065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>56</v>
       </c>
@@ -2127,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>55</v>
       </c>
@@ -2138,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -2149,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -2160,7 +2109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -2171,7 +2120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -2182,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -2193,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>49</v>
       </c>
@@ -2204,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -2215,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -2226,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -2237,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>45</v>
       </c>
@@ -2248,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -2281,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -2292,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>40</v>
       </c>
@@ -2303,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -2314,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -2325,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>37</v>
       </c>
@@ -2336,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -2347,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -2358,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -2369,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -2380,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -2391,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -2402,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -2413,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -2446,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -2457,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -2479,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -2490,7 +2439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -2501,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -2512,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -2523,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -2534,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -2545,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -2578,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -2589,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -2622,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -2633,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2644,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -2702,6 +2651,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>